--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="8">
   <si>
     <t>Create and Delete CitizenShip from Excel</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -282,6 +282,94 @@
         <v>2</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
   <si>
     <t>Create and Delete CitizenShip from Excel</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -370,6 +370,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="8">
   <si>
     <t>Create and Delete CitizenShip from Excel</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -381,6 +381,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="8">
   <si>
     <t>Create and Delete CitizenShip from Excel</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -392,6 +392,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="8">
   <si>
     <t>Create and Delete CitizenShip from Excel</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -414,6 +414,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="8">
   <si>
     <t>Create and Delete CitizenShip from Excel</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -425,6 +425,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
